--- a/lab_3/codelog.xlsx
+++ b/lab_3/codelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy\Documents\GitHub\DIG4639C-Fall_2019\lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDAC4D74-79F8-4222-87BA-B7CABB546FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D2DCA-348E-4954-A724-D5ED40D886D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7662DA2-4E5B-4CB5-8BCD-750600A0CB61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>Coded in Dan's class</t>
+  </si>
+  <si>
+    <t>Coding work in Dan's class</t>
+  </si>
+  <si>
+    <t>50 minutes</t>
+  </si>
+  <si>
+    <t>getting started on lab 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final </t>
+  </si>
+  <si>
+    <t>Did the DIG4639 Midterm</t>
+  </si>
+  <si>
+    <t>1 hour and 7 minutes</t>
   </si>
 </sst>
 </file>
@@ -544,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68874A4-E543-475D-BAD6-2AF501C9B54D}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,39 +918,90 @@
       <c r="A30" s="1">
         <v>43758</v>
       </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43760</v>
       </c>
+      <c r="B31" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43762</v>
       </c>
+      <c r="B32" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43763</v>
       </c>
+      <c r="B33" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43764</v>
+        <v>43767</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43767</v>
+        <v>43769</v>
       </c>
       <c r="B35" s="2">
-        <v>9.7222222222222224E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" s="2">
         <v>0.1388888888888889</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>49</v>
@@ -940,188 +1009,171 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43769</v>
+        <v>43771</v>
       </c>
       <c r="B36" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C36" s="2">
-        <v>0.1388888888888889</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43771</v>
+        <v>43772</v>
       </c>
       <c r="B37" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="C37" s="2">
-        <v>0.31597222222222221</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43772</v>
+        <v>43774</v>
       </c>
       <c r="B38" s="2">
-        <v>0.25</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C38" s="2">
-        <v>0.30902777777777779</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43774</v>
+        <v>43776</v>
       </c>
       <c r="B39" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C39" s="2">
         <v>0.1388888888888889</v>
       </c>
       <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D40" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43776</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>39</v>
+      <c r="E40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43781</v>
+        <v>43783</v>
       </c>
       <c r="B41" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C41" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43783</v>
       </c>
       <c r="B42" s="2">
-        <v>0.10416666666666667</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C42" s="2">
-        <v>0.1388888888888889</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="B43" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C43" s="2">
-        <v>0.49305555555555558</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43784</v>
+        <v>43785</v>
       </c>
       <c r="B44" s="2">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C44" s="2">
-        <v>0.47916666666666669</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43785</v>
+        <v>43786</v>
       </c>
       <c r="B45" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.19097222222222221</v>
       </c>
       <c r="C45" s="2">
-        <v>5.2777777777777778E-2</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43786</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.19097222222222221</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
